--- a/Dokumentation/ZeitplanungRoulette.xlsx
+++ b/Dokumentation/ZeitplanungRoulette.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF2F57F-47F8-44E8-895D-7A5250C8A0BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A278339-4E52-463C-A7E6-020E453828EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="30">
   <si>
     <t>Woche1_DO</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Roulette kennenlernen, Zeitplan erstellen, (Diagramme erstellen)</t>
-  </si>
-  <si>
     <t>ist die Erwartete Zeit</t>
   </si>
   <si>
@@ -101,13 +98,31 @@
   </si>
   <si>
     <t>User interface standartisieren und Code aufräumen/weiter verfeinern</t>
+  </si>
+  <si>
+    <t>(   ||   )  = Gruppenarbeit</t>
+  </si>
+  <si>
+    <t>|| Prototyp von Menu erstellen und mit Klassen verbinden ||</t>
+  </si>
+  <si>
+    <t>Spiele zusammenfassen</t>
+  </si>
+  <si>
+    <t>Datenbank erstellen, einfügen und testen (Fragebogen erstellen)</t>
+  </si>
+  <si>
+    <t>Roulette kennenlernen, Zeitplan erstellen, {Diagramme erstellen}</t>
+  </si>
+  <si>
+    <t>Vorbereiten der Präsentation, weiterführung der Dokumentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +144,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +169,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -157,18 +184,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -200,7 +230,7 @@
     <tableColumn id="9" xr3:uid="{2FDA43CD-E875-49E4-B453-6F61133385DC}" name="Woche3_MO"/>
     <tableColumn id="10" xr3:uid="{AAF2E97D-40B5-45F3-9490-D71ED650125C}" name="Woche3_DI"/>
     <tableColumn id="11" xr3:uid="{47A0BBAB-A15C-4F76-AB22-97CC6AAE963A}" name="Woche3_MI"/>
-    <tableColumn id="12" xr3:uid="{781BFCE9-5535-45A4-B88A-EC239C63FC3C}" name="Woche3_DO"/>
+    <tableColumn id="12" xr3:uid="{781BFCE9-5535-45A4-B88A-EC239C63FC3C}" name="Woche3_DO" dataCellStyle="Neutral"/>
     <tableColumn id="13" xr3:uid="{EB9928E1-029D-4BBE-80E0-C8960565DCE5}" name="Woche3_FR"/>
     <tableColumn id="14" xr3:uid="{5CBB22B2-E7A1-476A-82BC-FEE492459721}" name="Woche4_MO"/>
     <tableColumn id="15" xr3:uid="{D4162AE9-80C6-4E47-BD5D-8C471FF0DF2D}" name="Woche4_DI"/>
@@ -475,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S8"/>
+  <dimension ref="B1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,13 +534,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
@@ -571,34 +604,138 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="3"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumentation/ZeitplanungRoulette.xlsx
+++ b/Dokumentation/ZeitplanungRoulette.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A278339-4E52-463C-A7E6-020E453828EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5E0FFF-58E2-45A4-A0BE-09CA6E7DB816}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Woche1_DO</t>
   </si>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,13 +606,14 @@
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="2"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="M5" s="3"/>
     </row>
